--- a/GrocceryApplication/src/test/resources/TestData.xlsx
+++ b/GrocceryApplication/src/test/resources/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{199E06E5-9F23-45EA-B54E-B4C206412790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E4F683BD-34F8-4A62-9173-B370E7DAD676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminUsersPage" sheetId="1" r:id="rId1"/>
     <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageNewsPage" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:M7"/>
@@ -22,7 +23,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+  <si>
+    <t>Blessy</t>
+  </si>
   <si>
     <t>aleena123</t>
   </si>
@@ -39,7 +43,7 @@
     <t>hello</t>
   </si>
   <si>
-    <t>Blessy</t>
+    <t>SportsNews</t>
   </si>
 </sst>
 </file>
@@ -359,22 +363,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -383,45 +389,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1C51D8-2613-4CA6-9A5F-22D1EA190600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE32880-A11A-4972-B151-2EF2D23CA7AF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805D6AD6-E67F-4654-B413-E57406B45AFD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
